--- a/897/897-TestCase.xlsx
+++ b/897/897-TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuyên đề web1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\28-cdptw1-2\897\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>VERSION</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Hình 1</t>
   </si>
   <si>
-    <t>- Giao diện đẹp hơn. Chức năng Sort ngang, dọc các Images</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -472,24 +469,9 @@
     <t>- Giao diện chung</t>
   </si>
   <si>
-    <t>- Khi nhấp vào List</t>
-  </si>
-  <si>
-    <t>- Các Images sẽ sắp xếp dọc</t>
-  </si>
-  <si>
     <t>Hình 3</t>
   </si>
   <si>
-    <t>- Khi nhấp vào Grid</t>
-  </si>
-  <si>
-    <t>- Các Images sẽ sắp xếp ngang</t>
-  </si>
-  <si>
-    <t>Hình3</t>
-  </si>
-  <si>
     <t>Block 897</t>
   </si>
   <si>
@@ -505,13 +487,40 @@
     <t>- Khi thu nhỏ màn hình lại</t>
   </si>
   <si>
-    <t>- Các images sẽ thu nhỏ lại theo kích thước màn hình</t>
-  </si>
-  <si>
     <t>Hình 4</t>
   </si>
   <si>
-    <t>Hình4</t>
+    <t>- Giao diện Header có các link , ô tìm kiếm cho người dùng sử dụng.</t>
+  </si>
+  <si>
+    <t>- Chạy trên di động</t>
+  </si>
+  <si>
+    <t>- Sẽ thu nhỏ theo kích thước màn hình</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>- Các header với content sẽ thu nhỏ. Không bị nằm nhiều chỗ</t>
+  </si>
+  <si>
+    <t>- Khi thêm nội dung</t>
+  </si>
+  <si>
+    <t>- Các images sẽ không bị đẩy</t>
+  </si>
+  <si>
+    <t>Hình 5</t>
+  </si>
+  <si>
+    <t>- Khi phóng to giao diện</t>
+  </si>
+  <si>
+    <t>- Ô search sẽ xuống dòng</t>
+  </si>
+  <si>
+    <t>Hình 6</t>
   </si>
 </sst>
 </file>
@@ -617,9 +626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1193,7 +1201,22 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,33 +1321,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1549,15 +1555,163 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="73" b="5587"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="4638675"/>
+          <a:ext cx="8753475" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="220" b="5457"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457326" y="10153650"/>
+          <a:ext cx="8763000" cy="5991225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="72" b="35018"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="17164050"/>
+          <a:ext cx="8801100" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="-74" b="5326"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="22698076"/>
+          <a:ext cx="8839200" cy="5276850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,88 +1722,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="11336" t="10661" r="15509" b="6629"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect r="-638" b="6316"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="4543424"/>
-          <a:ext cx="8543924" cy="4781551"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="22695" t="8856" r="25834" b="4805"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228849" y="9925050"/>
-          <a:ext cx="6696075" cy="6315075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>257176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="37194" t="16930" r="27370" b="10145"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2952750" y="16954501"/>
-          <a:ext cx="4610100" cy="5334000"/>
+          <a:off x="1438274" y="28746450"/>
+          <a:ext cx="9010651" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4417,7 +4497,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1" ht="24">
       <c r="A1" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
@@ -4446,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="25">
         <v>43722</v>
@@ -4607,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14:BH14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16:BH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4751,7 +4831,7 @@
       <c r="AR2" s="61"/>
       <c r="AS2" s="62">
         <f>COUNTIF($AR:$AR,"NG")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="61"/>
       <c r="AU2" s="61"/>
@@ -4775,41 +4855,41 @@
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="110"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="115"/>
       <c r="AJ3" s="50" t="s">
         <v>15</v>
       </c>
@@ -4840,41 +4920,41 @@
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="113"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="118"/>
       <c r="AJ4" s="54" t="s">
         <v>16</v>
       </c>
@@ -4969,10 +5049,10 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="74" t="s">
         <v>19</v>
       </c>
@@ -5050,8 +5130,8 @@
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="76" t="s">
         <v>26</v>
       </c>
@@ -5119,61 +5199,61 @@
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="116">
+      <c r="A8" s="121">
         <v>1</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="126" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="134"/>
-      <c r="AL8" s="134"/>
-      <c r="AM8" s="135"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100"/>
       <c r="AN8" s="89"/>
       <c r="AO8" s="90"/>
       <c r="AP8" s="90"/>
       <c r="AQ8" s="91"/>
       <c r="AR8" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS8" s="90"/>
       <c r="AT8" s="91"/>
@@ -5196,45 +5276,45 @@
       <c r="BI8" s="10"/>
     </row>
     <row r="9" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="137"/>
-      <c r="AG9" s="137"/>
-      <c r="AH9" s="137"/>
-      <c r="AI9" s="137"/>
-      <c r="AJ9" s="137"/>
-      <c r="AK9" s="137"/>
-      <c r="AL9" s="137"/>
-      <c r="AM9" s="138"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="103"/>
       <c r="AN9" s="92"/>
       <c r="AO9" s="93"/>
       <c r="AP9" s="93"/>
@@ -5249,7 +5329,7 @@
       <c r="AY9" s="93"/>
       <c r="AZ9" s="94"/>
       <c r="BA9" s="95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BB9" s="96"/>
       <c r="BC9" s="96"/>
@@ -5261,61 +5341,61 @@
       <c r="BI9" s="10"/>
     </row>
     <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="116">
+      <c r="A10" s="121">
         <v>2</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="131" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="134"/>
-      <c r="AJ10" s="134"/>
-      <c r="AK10" s="134"/>
-      <c r="AL10" s="134"/>
-      <c r="AM10" s="135"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="100"/>
       <c r="AN10" s="89"/>
       <c r="AO10" s="90"/>
       <c r="AP10" s="90"/>
       <c r="AQ10" s="91"/>
       <c r="AR10" s="89" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AS10" s="90"/>
       <c r="AT10" s="91"/>
@@ -5325,8 +5405,8 @@
       <c r="AX10" s="89"/>
       <c r="AY10" s="90"/>
       <c r="AZ10" s="91"/>
-      <c r="BA10" s="98" t="s">
-        <v>53</v>
+      <c r="BA10" s="79" t="s">
+        <v>58</v>
       </c>
       <c r="BB10" s="80"/>
       <c r="BC10" s="80"/>
@@ -5338,45 +5418,45 @@
       <c r="BI10" s="10"/>
     </row>
     <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="137"/>
-      <c r="AJ11" s="137"/>
-      <c r="AK11" s="137"/>
-      <c r="AL11" s="137"/>
-      <c r="AM11" s="138"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="103"/>
       <c r="AN11" s="92"/>
       <c r="AO11" s="93"/>
       <c r="AP11" s="93"/>
@@ -5390,9 +5470,7 @@
       <c r="AX11" s="92"/>
       <c r="AY11" s="93"/>
       <c r="AZ11" s="94"/>
-      <c r="BA11" s="95" t="s">
-        <v>56</v>
-      </c>
+      <c r="BA11" s="95"/>
       <c r="BB11" s="96"/>
       <c r="BC11" s="96"/>
       <c r="BD11" s="96"/>
@@ -5403,61 +5481,61 @@
       <c r="BI11" s="10"/>
     </row>
     <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="116">
+      <c r="A12" s="121">
         <v>3</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="133" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="134"/>
-      <c r="AK12" s="134"/>
-      <c r="AL12" s="134"/>
-      <c r="AM12" s="135"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="100"/>
       <c r="AN12" s="89"/>
       <c r="AO12" s="90"/>
       <c r="AP12" s="90"/>
       <c r="AQ12" s="91"/>
       <c r="AR12" s="89" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AS12" s="90"/>
       <c r="AT12" s="91"/>
@@ -5480,45 +5558,45 @@
       <c r="BI12" s="10"/>
     </row>
     <row r="13" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="138"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="103"/>
       <c r="AN13" s="92"/>
       <c r="AO13" s="93"/>
       <c r="AP13" s="93"/>
@@ -5532,72 +5610,72 @@
       <c r="AX13" s="92"/>
       <c r="AY13" s="93"/>
       <c r="AZ13" s="94"/>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="100"/>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="100"/>
-      <c r="BG13" s="100"/>
-      <c r="BH13" s="101"/>
+      <c r="BA13" s="104"/>
+      <c r="BB13" s="105"/>
+      <c r="BC13" s="105"/>
+      <c r="BD13" s="105"/>
+      <c r="BE13" s="105"/>
+      <c r="BF13" s="105"/>
+      <c r="BG13" s="105"/>
+      <c r="BH13" s="106"/>
       <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="116">
+      <c r="A14" s="121">
         <v>4</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="133" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="134"/>
-      <c r="AJ14" s="134"/>
-      <c r="AK14" s="134"/>
-      <c r="AL14" s="134"/>
-      <c r="AM14" s="135"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="100"/>
       <c r="AN14" s="89"/>
       <c r="AO14" s="90"/>
       <c r="AP14" s="90"/>
       <c r="AQ14" s="91"/>
       <c r="AR14" s="89" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AS14" s="90"/>
       <c r="AT14" s="91"/>
@@ -5620,45 +5698,45 @@
       <c r="BI14" s="10"/>
     </row>
     <row r="15" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="137"/>
-      <c r="AH15" s="137"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="103"/>
       <c r="AN15" s="92"/>
       <c r="AO15" s="93"/>
       <c r="AP15" s="93"/>
@@ -5672,28 +5750,171 @@
       <c r="AX15" s="92"/>
       <c r="AY15" s="93"/>
       <c r="AZ15" s="94"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="100"/>
-      <c r="BC15" s="100"/>
-      <c r="BD15" s="100"/>
-      <c r="BE15" s="100"/>
-      <c r="BF15" s="100"/>
-      <c r="BG15" s="100"/>
-      <c r="BH15" s="101"/>
+      <c r="BA15" s="104"/>
+      <c r="BB15" s="105"/>
+      <c r="BC15" s="105"/>
+      <c r="BD15" s="105"/>
+      <c r="BE15" s="105"/>
+      <c r="BF15" s="105"/>
+      <c r="BG15" s="105"/>
+      <c r="BH15" s="106"/>
       <c r="BI15" s="10"/>
     </row>
+    <row r="16" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A16" s="121">
+        <v>5</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="89"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="80"/>
+      <c r="BH16" s="81"/>
+      <c r="BI16" s="10"/>
+    </row>
+    <row r="17" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="96"/>
+      <c r="BC17" s="96"/>
+      <c r="BD17" s="96"/>
+      <c r="BE17" s="96"/>
+      <c r="BF17" s="96"/>
+      <c r="BG17" s="96"/>
+      <c r="BH17" s="97"/>
+      <c r="BI17" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
+  <mergeCells count="96">
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="BA17:BH17"/>
     <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:L17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="H10:L11"/>
@@ -5709,6 +5930,15 @@
     <mergeCell ref="T12:AB13"/>
     <mergeCell ref="T10:AB11"/>
     <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
     <mergeCell ref="BA15:BH15"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="H3:AI4"/>
@@ -5770,17 +6000,16 @@
     <mergeCell ref="AS1:AV1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR14 AR12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR14 AR12 AR16">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="BA9:BH9" location="Evidance!A23" display="Hình 2"/>
     <hyperlink ref="BA8:BH8" location="Evidance!A3" display="Hình 1"/>
-    <hyperlink ref="BA10:BH10" location="Evidance!A3" display="Hình 4"/>
-    <hyperlink ref="BA12:BH12" location="Evidance!A51" display="Hình3"/>
-    <hyperlink ref="BA11:BH11" location="Evidance!A23" display="Hình 2"/>
-    <hyperlink ref="BA14:BH14" location="Evidance!A87" display="Hình4"/>
+    <hyperlink ref="BA10:BH10" location="Evidance!A51" display="Hình 3"/>
+    <hyperlink ref="BA14:BH14" location="Evidance!A116" display="Hình 5"/>
+    <hyperlink ref="BA16:BH16" location="Evidance!A147" display="Hình 6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="15" orientation="portrait" r:id="rId1"/>
@@ -5791,7 +6020,7 @@
           <x14:formula1>
             <xm:f>Defined!D$25:D$33</xm:f>
           </x14:formula1>
-          <xm:sqref>H8:L9</xm:sqref>
+          <xm:sqref>H8:L9 H16:L17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5801,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A87"/>
+  <dimension ref="A3:A147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5820,17 +6049,27 @@
     </row>
     <row r="23" spans="1:1" ht="23.25">
       <c r="A23" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.25">
       <c r="A51" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="23.25">
       <c r="A87" s="45" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="23.25">
+      <c r="A116" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="23.25">
+      <c r="A147" s="141" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
